--- a/medicine/Psychotrope/Guerre_de_la_bière_de_Bamberg/Guerre_de_la_bière_de_Bamberg.xlsx
+++ b/medicine/Psychotrope/Guerre_de_la_bière_de_Bamberg/Guerre_de_la_bière_de_Bamberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Guerre_de_la_bi%C3%A8re_de_Bamberg</t>
+          <t>Guerre_de_la_bière_de_Bamberg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La guerre de la bière de Bamberg (en allemand : Bamberger Bierkrieg) désigne un conflit sur la bière qui a lieu en 1907 dans la ville de Bamberg, dans l'Empire allemand.
-L'Union des brasseries de Bamberg décide le 1er octobre 1907 d'augmenter le prix du demi-litre de bière (le Seidla) d'un pfennig, portant son coût de 11 à 12 pfennigs (ou de 10 à 11 pfennigs, selon d'autres sources)[1]. En outre, le petit verre de table dénommé Petit Heinz, coûtant 1 Pfennig, est voué à disparaître.
+L'Union des brasseries de Bamberg décide le 1er octobre 1907 d'augmenter le prix du demi-litre de bière (le Seidla) d'un pfennig, portant son coût de 11 à 12 pfennigs (ou de 10 à 11 pfennigs, selon d'autres sources). En outre, le petit verre de table dénommé Petit Heinz, coûtant 1 Pfennig, est voué à disparaître.
 La population de Bamberg réagit à ces mesures drastiques, car la dernière augmentation du prix de la bière remonte à 1797. Les aubergistes Georg Weierich et Anton Mohr, sous la direction de Karl Panzer, comptable dans l'entreprise Kaliko à Bamberg, procèdent à un boycott : au lieu de vendre la bière de Bamberg, plus chère, ils proposent à la clientèle la bière de Forchheim, moins chère, qui se vend très bien à cette époque, contrairement à la bière de Bamberg, sans changement de prix.
-Au bout d'une semaine, l'Union des brasseries de Bamberg constatant que le nombre de barriques livrées depuis Forchheim, ville toute proche, ne cesse d'augmenter[1], finit par céder le 7 octobre et en revient au prix initial. L'affaire entraîne la démission du président de l'Union[1].
+Au bout d'une semaine, l'Union des brasseries de Bamberg constatant que le nombre de barriques livrées depuis Forchheim, ville toute proche, ne cesse d'augmenter, finit par céder le 7 octobre et en revient au prix initial. L'affaire entraîne la démission du président de l'Union.
 </t>
         </is>
       </c>
